--- a/Campus Pizzeri’academy2.xlsx
+++ b/Campus Pizzeri’academy2.xlsx
@@ -1,26 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utranium\Desktop\B1 INFO\06_Base de données\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utranium\Desktop\B1 INFO\06_Base de données\DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EB835566-952B-4A56-868F-849F3D834A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C8EE5D-0DAE-4317-A55F-C1A183FB4ADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="Agence" sheetId="3" r:id="rId1"/>
+    <sheet name="Fiche commande" sheetId="4" r:id="rId2"/>
+    <sheet name="etat de la commande" sheetId="5" r:id="rId3"/>
+    <sheet name="modalité" sheetId="6" r:id="rId4"/>
+    <sheet name="Client" sheetId="7" r:id="rId5"/>
+    <sheet name="Adresse" sheetId="8" r:id="rId6"/>
+    <sheet name="Banque" sheetId="9" r:id="rId7"/>
+    <sheet name="Salariés" sheetId="10" r:id="rId8"/>
+    <sheet name="Horaires" sheetId="11" r:id="rId9"/>
+    <sheet name="pizzas" sheetId="12" r:id="rId10"/>
+    <sheet name="taille" sheetId="13" r:id="rId11"/>
+    <sheet name="recettes" sheetId="14" r:id="rId12"/>
+    <sheet name="ingredients" sheetId="15" r:id="rId13"/>
+    <sheet name="prix pour taille" sheetId="16" r:id="rId14"/>
+    <sheet name="Merise" sheetId="19" r:id="rId15"/>
+    <sheet name="base de donnée" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="325">
   <si>
     <t>Schema Report for database: mydb</t>
   </si>
@@ -55,15 +70,9 @@
     <t xml:space="preserve">gestion stock </t>
   </si>
   <si>
-    <t xml:space="preserve">aide mÃ©moire_has_ingredients </t>
-  </si>
-  <si>
     <t xml:space="preserve">type paiements </t>
   </si>
   <si>
-    <t xml:space="preserve">pizza_has_commande </t>
-  </si>
-  <si>
     <t xml:space="preserve">ingredients_has_pizza </t>
   </si>
   <si>
@@ -115,9 +124,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>commande_idcommande</t>
-  </si>
-  <si>
     <t>adresse_id_adresse</t>
   </si>
   <si>
@@ -154,24 +160,6 @@
     <t>date a laquelle la commande fut passÃ©e</t>
   </si>
   <si>
-    <t>etat</t>
-  </si>
-  <si>
-    <t>ENUM('preparation', 'livraison', 'reception')</t>
-  </si>
-  <si>
-    <t>'etat de la commande'</t>
-  </si>
-  <si>
-    <t>moyen_de_commande</t>
-  </si>
-  <si>
-    <t>ENUM('tel', 'int', 'pers')</t>
-  </si>
-  <si>
-    <t>'commande passÃ©e par tel , internet ou pers'</t>
-  </si>
-  <si>
     <t>Client_id_Client</t>
   </si>
   <si>
@@ -346,9 +334,6 @@
     <t>quantitÃ©e en gramme</t>
   </si>
   <si>
-    <t>gestion stock_id_gestion stock</t>
-  </si>
-  <si>
     <t>Table: aide mÃ©moire</t>
   </si>
   <si>
@@ -382,9 +367,6 @@
     <t>quantitÃ©e restante en Kg</t>
   </si>
   <si>
-    <t>Table: aide mÃ©moire_has_ingredients</t>
-  </si>
-  <si>
     <t>ingredients_id_ingredients</t>
   </si>
   <si>
@@ -409,9 +391,6 @@
     <t>'autre moyen de paiement'</t>
   </si>
   <si>
-    <t>Table: pizza_has_commande</t>
-  </si>
-  <si>
     <t>pizza_id_pizza</t>
   </si>
   <si>
@@ -442,26 +421,602 @@
     <t>date de l'achat</t>
   </si>
   <si>
-    <t>agence pizzeracademy_idagence</t>
-  </si>
-  <si>
-    <t>agence pizzeracademy_commande_idcommande</t>
-  </si>
-  <si>
-    <t>agence pizzeracademy_adresse_id_adresse</t>
-  </si>
-  <si>
     <t>Table: commande d'ingredient_has_ingredients</t>
   </si>
   <si>
     <t>commande d'ingredient_id_commande_d'ingredient</t>
+  </si>
+  <si>
+    <t>Table d'Agence</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Spécifiés</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>adresse</t>
+  </si>
+  <si>
+    <t>AI,PK</t>
+  </si>
+  <si>
+    <t>identifiant de l'agence</t>
+  </si>
+  <si>
+    <t>numero</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>numero de la rue</t>
+  </si>
+  <si>
+    <t>VARCHAR(256)</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>code postale</t>
+  </si>
+  <si>
+    <t>VARCHARR(256)</t>
+  </si>
+  <si>
+    <t>Pays</t>
+  </si>
+  <si>
+    <t>complement</t>
+  </si>
+  <si>
+    <t>Complement</t>
+  </si>
+  <si>
+    <t>Fiche Commande</t>
+  </si>
+  <si>
+    <t>Spécifié</t>
+  </si>
+  <si>
+    <t>Fiche commande</t>
+  </si>
+  <si>
+    <t>PK,AI</t>
+  </si>
+  <si>
+    <t>fiche commande de pizza</t>
+  </si>
+  <si>
+    <t>FK, NN</t>
+  </si>
+  <si>
+    <t>NN,FK</t>
+  </si>
+  <si>
+    <t>type de la pizza</t>
+  </si>
+  <si>
+    <t>id_client</t>
+  </si>
+  <si>
+    <t>INT(11)</t>
+  </si>
+  <si>
+    <t>id du client</t>
+  </si>
+  <si>
+    <t>Date de la commande</t>
+  </si>
+  <si>
+    <t>id_salarié</t>
+  </si>
+  <si>
+    <t>id du salarié ayant enregistrer la commande</t>
+  </si>
+  <si>
+    <t>id_etat commande</t>
+  </si>
+  <si>
+    <t>id de l'etat de la commande</t>
+  </si>
+  <si>
+    <t>id_modalité</t>
+  </si>
+  <si>
+    <t>facon dont la commande fut passée</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>OUI = paiement effectué, NON =  paiement non effectué</t>
+  </si>
+  <si>
+    <t>etat de la commande</t>
+  </si>
+  <si>
+    <t>Etat de la commande</t>
+  </si>
+  <si>
+    <t>id_etat de la commande</t>
+  </si>
+  <si>
+    <t>id de l'état de la commande</t>
+  </si>
+  <si>
+    <t>délai</t>
+  </si>
+  <si>
+    <t>a l'instant T (en minutes)</t>
+  </si>
+  <si>
+    <t>id de la commande appellé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">état </t>
+  </si>
+  <si>
+    <t>ENUM (preparation, livraison, reception)</t>
+  </si>
+  <si>
+    <t>etat : preparation, livraison, reception</t>
+  </si>
+  <si>
+    <t>modalité de commande</t>
+  </si>
+  <si>
+    <t>modalités</t>
+  </si>
+  <si>
+    <t>AI, PK</t>
+  </si>
+  <si>
+    <t>id des modalités</t>
+  </si>
+  <si>
+    <t>fiche commande</t>
+  </si>
+  <si>
+    <t>moyen</t>
+  </si>
+  <si>
+    <t>ENUM(tel, int, pers)</t>
+  </si>
+  <si>
+    <t>moyen utilisé pour la commande</t>
+  </si>
+  <si>
+    <t>Table client</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>identifiant</t>
+  </si>
+  <si>
+    <t>tel peut etre nul si @ renseigné</t>
+  </si>
+  <si>
+    <t>mail du client peut etre nul si tel renseigné</t>
+  </si>
+  <si>
+    <t>H/F Vrai = H / Faux = F</t>
+  </si>
+  <si>
+    <t>date_anniv</t>
+  </si>
+  <si>
+    <t>date anniv</t>
+  </si>
+  <si>
+    <t>adresse_id</t>
+  </si>
+  <si>
+    <t>FK,  NN</t>
+  </si>
+  <si>
+    <t>Lien vers la ligne de la table adresse correspondante au client</t>
+  </si>
+  <si>
+    <t>coord bancaires_id</t>
+  </si>
+  <si>
+    <t>Liens vers la ligne de la table "Co_Banque" correspondante au client</t>
+  </si>
+  <si>
+    <t>Table d'adresse</t>
+  </si>
+  <si>
+    <t>Banque</t>
+  </si>
+  <si>
+    <t>Specifié</t>
+  </si>
+  <si>
+    <t>id_banque</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Identifiant de la ligne</t>
+  </si>
+  <si>
+    <t>iban</t>
+  </si>
+  <si>
+    <t>varchart(34)</t>
+  </si>
+  <si>
+    <t>bic</t>
+  </si>
+  <si>
+    <t>varchart(11)</t>
+  </si>
+  <si>
+    <t>rib</t>
+  </si>
+  <si>
+    <t>varchart(45)</t>
+  </si>
+  <si>
+    <t>varchart(255)</t>
+  </si>
+  <si>
+    <t>Salariés</t>
+  </si>
+  <si>
+    <t>tel peut etre nul si mail renseigné</t>
+  </si>
+  <si>
+    <t>Salaire</t>
+  </si>
+  <si>
+    <t>FLOAT (4,2)</t>
+  </si>
+  <si>
+    <t>salaire annuel de l'employé</t>
+  </si>
+  <si>
+    <t>horaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK, </t>
+  </si>
+  <si>
+    <t>poste</t>
+  </si>
+  <si>
+    <t>ENUM(vendeur, mécano, comptable, standardiste)</t>
+  </si>
+  <si>
+    <t>Poste occupé</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>INT,PK</t>
+  </si>
+  <si>
+    <t>id de la plage</t>
+  </si>
+  <si>
+    <t>INT,FK</t>
+  </si>
+  <si>
+    <t>id du salarié</t>
+  </si>
+  <si>
+    <t>plage horaire</t>
+  </si>
+  <si>
+    <t>h_debut</t>
+  </si>
+  <si>
+    <t>horaire de début</t>
+  </si>
+  <si>
+    <t>h_fin</t>
+  </si>
+  <si>
+    <t>horaire de fin</t>
+  </si>
+  <si>
+    <t>jour</t>
+  </si>
+  <si>
+    <t>ENUM</t>
+  </si>
+  <si>
+    <t>jour de la semaine</t>
+  </si>
+  <si>
+    <t>id plage</t>
+  </si>
+  <si>
+    <t>exception_horaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heure </t>
+  </si>
+  <si>
+    <t>exceptions</t>
+  </si>
+  <si>
+    <t>INT, FK</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>type d'abscence</t>
+  </si>
+  <si>
+    <t>date de l'abscence</t>
+  </si>
+  <si>
+    <t>h_début</t>
+  </si>
+  <si>
+    <t>float (4,2)</t>
+  </si>
+  <si>
+    <t>heure de debut</t>
+  </si>
+  <si>
+    <t>heure de fin</t>
+  </si>
+  <si>
+    <t>Pizzas</t>
+  </si>
+  <si>
+    <t>pizzas</t>
+  </si>
+  <si>
+    <t>id_pizzas</t>
+  </si>
+  <si>
+    <t>id de la pizzas</t>
+  </si>
+  <si>
+    <t>id_recette</t>
+  </si>
+  <si>
+    <t>recette correspondante a la pizza</t>
+  </si>
+  <si>
+    <t>id_prix</t>
+  </si>
+  <si>
+    <t>prix de la pizza</t>
+  </si>
+  <si>
+    <t>NN, UNIQUE</t>
+  </si>
+  <si>
+    <t>Nom de la pizza</t>
+  </si>
+  <si>
+    <t>id_taille</t>
+  </si>
+  <si>
+    <t>taille de la pizza</t>
+  </si>
+  <si>
+    <t>PK, AI</t>
+  </si>
+  <si>
+    <t>id de la taille de la pizza</t>
+  </si>
+  <si>
+    <t>taille_pizza</t>
+  </si>
+  <si>
+    <t>taille de la pizza . normale par default</t>
+  </si>
+  <si>
+    <t>recettes</t>
+  </si>
+  <si>
+    <t>id de recette</t>
+  </si>
+  <si>
+    <t>temps</t>
+  </si>
+  <si>
+    <t>NN, UNSIGNED</t>
+  </si>
+  <si>
+    <t>temps de prepa en minutes</t>
+  </si>
+  <si>
+    <t>tems_de_cuisson</t>
+  </si>
+  <si>
+    <t>Temps de cuisson</t>
+  </si>
+  <si>
+    <t>Nom de la recette</t>
+  </si>
+  <si>
+    <t>id de la taille</t>
+  </si>
+  <si>
+    <t>id_ingredient</t>
+  </si>
+  <si>
+    <t>Ingredient correspondant</t>
+  </si>
+  <si>
+    <t>Ingredients</t>
+  </si>
+  <si>
+    <t>ingredients</t>
+  </si>
+  <si>
+    <t>id de l'ingredient</t>
+  </si>
+  <si>
+    <t>nom de l'ingredient</t>
+  </si>
+  <si>
+    <t>quantitée</t>
+  </si>
+  <si>
+    <t>FLOAT (6,3)</t>
+  </si>
+  <si>
+    <t>quantité a ajouté en G</t>
+  </si>
+  <si>
+    <t>disponibilité</t>
+  </si>
+  <si>
+    <t>oui = dispo, non = non dispo</t>
+  </si>
+  <si>
+    <t>prix pour taille</t>
+  </si>
+  <si>
+    <t>Prix taille pizzas</t>
+  </si>
+  <si>
+    <t>id_prix en fonction de la taille</t>
+  </si>
+  <si>
+    <t>FK,NN</t>
+  </si>
+  <si>
+    <t>id du type de la pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status commande </t>
+  </si>
+  <si>
+    <t xml:space="preserve">modalitÃ© de commande </t>
+  </si>
+  <si>
+    <t xml:space="preserve">commande_has_pizza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock </t>
+  </si>
+  <si>
+    <t>datecommande</t>
+  </si>
+  <si>
+    <t>modalitÃ© de commande_id modalitÃ©_de_commande</t>
+  </si>
+  <si>
+    <t>Status commande_id_Status_commande</t>
+  </si>
+  <si>
+    <t>agence pizzeracademy_id_agence</t>
+  </si>
+  <si>
+    <t>adresse_id_adresse1</t>
+  </si>
+  <si>
+    <t>adresse_agence pizzeracademy_id_agence</t>
+  </si>
+  <si>
+    <t>info bancaire_id_info bancaire</t>
+  </si>
+  <si>
+    <t>'nom de la matiere'</t>
+  </si>
+  <si>
+    <t>temps de cuisson</t>
+  </si>
+  <si>
+    <t>temps de prÃ©paration</t>
+  </si>
+  <si>
+    <t>date_commande</t>
+  </si>
+  <si>
+    <t>Table: Status commande</t>
+  </si>
+  <si>
+    <t>id_Status_commande</t>
+  </si>
+  <si>
+    <t>heure_status</t>
+  </si>
+  <si>
+    <t>heure au changement de status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>ENUM('preparation', 'cuisson', 'attente_livraison', 'livraison', 'reception')</t>
+  </si>
+  <si>
+    <t>'preparation', 'cuisson', 'attente_livraison', 'livraison', 'reception')</t>
+  </si>
+  <si>
+    <t>Table: modalitÃ© de commande</t>
+  </si>
+  <si>
+    <t>id modalitÃ©_de_commande</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>moyen utilisÃ© pour le passage de la commande</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>drive</t>
+  </si>
+  <si>
+    <t>sur_place</t>
+  </si>
+  <si>
+    <t>Table: commande_has_pizza</t>
+  </si>
+  <si>
+    <t>commande_id_commande</t>
+  </si>
+  <si>
+    <t>quantitÃ©</t>
+  </si>
+  <si>
+    <t>INT(2)</t>
+  </si>
+  <si>
+    <t>Table: Stock</t>
+  </si>
+  <si>
+    <t>Merise</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,8 +1167,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -799,8 +1367,110 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF663300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -967,6 +1637,205 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1013,7 +1882,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1031,6 +1900,144 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="48" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="49" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="49" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="49" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="49" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="48" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1040,7 +2047,33 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1098,6 +2131,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91602FED-A90B-4FF0-A32D-B5E12FDB3CBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1478280"/>
+          <a:ext cx="12694920" cy="10271760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1396,20 +2484,813 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G163"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E074C7EA-3F34-49F3-A5CB-64495D14112E}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="43"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="44"/>
+      <c r="B6" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="44"/>
+      <c r="B7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="44"/>
+      <c r="B8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="44"/>
+      <c r="B9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="44"/>
+      <c r="B10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="44"/>
+      <c r="B11" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F089D01-65F9-4AE2-A66C-BE95674BA7EC}">
+  <sheetPr>
+    <tabColor rgb="FFFF6600"/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="34.77734375" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
+    <col min="11" max="11" width="34.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="59"/>
+      <c r="B4" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="59"/>
+      <c r="B5" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="59"/>
+      <c r="B6" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="59"/>
+      <c r="B7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="60"/>
+      <c r="B8" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="34"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440D0B38-D24E-418D-8BB1-1DC4861A6CC5}">
+  <sheetPr>
+    <tabColor rgb="FFCC6600"/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="62"/>
+      <c r="B4" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="63"/>
+      <c r="B5" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A8268F-4E31-4F19-A7F5-026BE03D80B5}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="35.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="31" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="65"/>
+      <c r="B4" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="65"/>
+      <c r="B5" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="65"/>
+      <c r="B6" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="65"/>
+      <c r="B7" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="65"/>
+      <c r="B8" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="66"/>
+      <c r="B9" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D2B7B1-5448-4D48-8053-6BD8B306EE87}">
+  <sheetPr>
+    <tabColor rgb="FFFF7C80"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="41" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="68"/>
+      <c r="B4" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="68"/>
+      <c r="B5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="68"/>
+      <c r="B6" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="69"/>
+      <c r="B7" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4103455-8A63-4951-963F-97D4C0D4391B}">
+  <sheetPr>
+    <tabColor rgb="FF663300"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="34.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="70" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="70"/>
+      <c r="B5" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="70"/>
+      <c r="B6" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94594F3-82DE-4499-BB14-689F59E89EB2}">
+  <dimension ref="D1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D1" s="74" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="76"/>
+    </row>
+    <row r="2" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D2" s="77"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="79"/>
+    </row>
+    <row r="3" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="80"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A03C28F-1A6E-4E2A-BF63-2EC5BA001886}">
+  <dimension ref="A1:G182"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="46.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" customWidth="1"/>
+    <col min="5" max="5" width="60.21875" customWidth="1"/>
+    <col min="6" max="6" width="46.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1478,155 +3359,127 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>13</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+      <c r="B24" s="71"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="73"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="71" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="73"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1637,2099 +3490,3717 @@
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="B31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="73"/>
     </row>
     <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="9"/>
+      <c r="A32" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="73"/>
     </row>
     <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>41</v>
+        <v>294</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>46</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F37" s="5"/>
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>52</v>
+        <v>295</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>53</v>
+        <v>296</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="71"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="73"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="72"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="73"/>
+    </row>
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="9"/>
-    </row>
-    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="9"/>
-    </row>
-    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="E48" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="F48" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="G48" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
     </row>
     <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>57</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F49" s="5"/>
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="G52" s="5"/>
     </row>
     <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G53" s="5"/>
     </row>
     <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G54" s="5"/>
     </row>
     <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F55" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>1</v>
-      </c>
+      <c r="A57" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="A58" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
     </row>
     <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="9"/>
+        <v>299</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
     </row>
     <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="9"/>
+      <c r="A60" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
     </row>
     <row r="61" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>26</v>
+      <c r="A61" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
+      <c r="A62" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G63" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B63" s="71"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="73"/>
     </row>
     <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G64" s="5"/>
+      <c r="A64" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="72"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="73"/>
     </row>
     <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G65" s="5"/>
+      <c r="A65" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>79</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F66" s="5"/>
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G67" s="5"/>
     </row>
     <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F68" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="G68" s="5"/>
     </row>
     <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>1</v>
-      </c>
+      <c r="A69" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="A70" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G71" s="5"/>
     </row>
     <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="9"/>
+      <c r="A72" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
     </row>
     <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G73" s="6" t="s">
+      <c r="A73" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="C73" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
+      <c r="A74" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G75" s="5"/>
+      <c r="A75" s="4" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G76" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B76" s="71"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="73"/>
     </row>
     <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>1</v>
-      </c>
+      <c r="A77" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="72"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="73"/>
     </row>
     <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="4" t="s">
-        <v>90</v>
+      <c r="A78" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
     </row>
     <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="9"/>
+      <c r="A80" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G80" s="5"/>
     </row>
     <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="A81" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G81" s="5"/>
     </row>
     <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
+      <c r="A82" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G83" s="5"/>
+      <c r="A83" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="84" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G84" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B84" s="71"/>
+      <c r="C84" s="72"/>
+      <c r="D84" s="72"/>
+      <c r="E84" s="72"/>
+      <c r="F84" s="72"/>
+      <c r="G84" s="73"/>
     </row>
     <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G85" s="5"/>
+      <c r="A85" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="72"/>
+      <c r="C85" s="72"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="72"/>
+      <c r="G85" s="73"/>
     </row>
     <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
+      <c r="A86" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>1</v>
-      </c>
+      <c r="A87" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
     </row>
     <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="4" t="s">
-        <v>102</v>
-      </c>
+      <c r="A88" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G88" s="5"/>
     </row>
     <row r="89" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G89" s="5"/>
     </row>
     <row r="90" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="9"/>
+      <c r="A90" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G90" s="5"/>
     </row>
     <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G91" s="6" t="s">
+      <c r="A91" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="C91" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
     </row>
     <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
+      <c r="A92" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B93" s="5" t="s">
+      <c r="A93" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
     </row>
     <row r="94" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G94" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B94" s="71"/>
+      <c r="C94" s="72"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="72"/>
+      <c r="F94" s="72"/>
+      <c r="G94" s="73"/>
     </row>
     <row r="95" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
+      <c r="A95" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" s="72"/>
+      <c r="C95" s="72"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="72"/>
+      <c r="G95" s="73"/>
     </row>
     <row r="96" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>1</v>
+      <c r="A96" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="4" t="s">
-        <v>109</v>
-      </c>
+      <c r="A97" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
     </row>
     <row r="98" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B98" s="7"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="9"/>
+        <v>95</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="9"/>
+      <c r="A99" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G99" s="5"/>
     </row>
     <row r="100" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>26</v>
+      <c r="A100" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
+      <c r="A101" s="4" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="102" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G102" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B102" s="71"/>
+      <c r="C102" s="72"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="73"/>
     </row>
     <row r="103" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
+      <c r="A103" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B103" s="72"/>
+      <c r="C103" s="72"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="72"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="73"/>
     </row>
     <row r="104" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
+      <c r="A104" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="105" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>1</v>
-      </c>
+      <c r="A105" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
     </row>
     <row r="106" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="A106" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G106" s="5"/>
     </row>
     <row r="107" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B107" s="7"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="9"/>
+        <v>102</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G107" s="5"/>
     </row>
     <row r="108" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="9"/>
+      <c r="A108" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G108" s="5"/>
     </row>
     <row r="109" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G109" s="6" t="s">
-        <v>26</v>
+      <c r="A109" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
+      <c r="A110" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="111" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G111" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B111" s="71"/>
+      <c r="C111" s="72"/>
+      <c r="D111" s="72"/>
+      <c r="E111" s="72"/>
+      <c r="F111" s="72"/>
+      <c r="G111" s="73"/>
     </row>
     <row r="112" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G112" s="5"/>
+      <c r="A112" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" s="72"/>
+      <c r="C112" s="72"/>
+      <c r="D112" s="72"/>
+      <c r="E112" s="72"/>
+      <c r="F112" s="72"/>
+      <c r="G112" s="73"/>
     </row>
     <row r="113" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>1</v>
+      <c r="A113" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="4" t="s">
-        <v>120</v>
-      </c>
+      <c r="A114" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
     </row>
     <row r="115" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B115" s="7"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G115" s="5"/>
     </row>
     <row r="116" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="9"/>
+      <c r="A116" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G116" s="5"/>
     </row>
     <row r="117" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G117" s="6" t="s">
-        <v>26</v>
+      <c r="A117" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
+      <c r="A118" s="4" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="119" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B119" s="71"/>
+      <c r="C119" s="72"/>
+      <c r="D119" s="72"/>
+      <c r="E119" s="72"/>
+      <c r="F119" s="72"/>
+      <c r="G119" s="73"/>
     </row>
     <row r="120" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>1</v>
-      </c>
+      <c r="A120" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B120" s="72"/>
+      <c r="C120" s="72"/>
+      <c r="D120" s="72"/>
+      <c r="E120" s="72"/>
+      <c r="F120" s="72"/>
+      <c r="G120" s="73"/>
     </row>
     <row r="121" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="4" t="s">
-        <v>122</v>
+      <c r="A121" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B122" s="7"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
     </row>
     <row r="123" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="9"/>
+      <c r="A123" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G123" s="5"/>
     </row>
     <row r="124" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F124" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G124" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="A124" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G124" s="5"/>
     </row>
     <row r="125" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
+      <c r="A125" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="126" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G126" s="5"/>
+      <c r="A126" s="4" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="127" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G127" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B127" s="71"/>
+      <c r="C127" s="72"/>
+      <c r="D127" s="72"/>
+      <c r="E127" s="72"/>
+      <c r="F127" s="72"/>
+      <c r="G127" s="73"/>
     </row>
     <row r="128" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>1</v>
-      </c>
+      <c r="A128" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B128" s="72"/>
+      <c r="C128" s="72"/>
+      <c r="D128" s="72"/>
+      <c r="E128" s="72"/>
+      <c r="F128" s="72"/>
+      <c r="G128" s="73"/>
     </row>
     <row r="129" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="4" t="s">
-        <v>129</v>
+      <c r="A129" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B130" s="7"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="9"/>
+        <v>122</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
     </row>
     <row r="131" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="9"/>
+      <c r="A131" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G131" s="5"/>
     </row>
     <row r="132" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F132" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G132" s="6" t="s">
+      <c r="A132" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="C132" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G132" s="5"/>
     </row>
     <row r="133" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
-        <v>130</v>
+        <v>304</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F133" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="G133" s="5"/>
     </row>
     <row r="134" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
+      <c r="A134" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
+      <c r="A135" s="4" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="136" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
+      <c r="A136" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B136" s="71"/>
+      <c r="C136" s="72"/>
+      <c r="D136" s="72"/>
+      <c r="E136" s="72"/>
+      <c r="F136" s="72"/>
+      <c r="G136" s="73"/>
+    </row>
+    <row r="137" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B137" s="72"/>
+      <c r="C137" s="72"/>
+      <c r="D137" s="72"/>
+      <c r="E137" s="72"/>
+      <c r="F137" s="72"/>
+      <c r="G137" s="73"/>
+    </row>
+    <row r="138" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+    </row>
+    <row r="140" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G140" s="5"/>
+    </row>
+    <row r="141" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G141" s="5"/>
+    </row>
+    <row r="142" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="5" t="s">
+    <row r="143" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B144" s="71"/>
+      <c r="C144" s="72"/>
+      <c r="D144" s="72"/>
+      <c r="E144" s="72"/>
+      <c r="F144" s="72"/>
+      <c r="G144" s="73"/>
+    </row>
+    <row r="145" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B145" s="72"/>
+      <c r="C145" s="72"/>
+      <c r="D145" s="72"/>
+      <c r="E145" s="72"/>
+      <c r="F145" s="72"/>
+      <c r="G145" s="73"/>
+    </row>
+    <row r="146" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B138" s="7"/>
-      <c r="C138" s="8"/>
-      <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="9"/>
-    </row>
-    <row r="139" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="7" t="s">
+      <c r="B146" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="9"/>
-    </row>
-    <row r="140" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="6" t="s">
+      <c r="C146" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="D146" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C140" s="6" t="s">
+      <c r="E146" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D140" s="6" t="s">
+      <c r="F146" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E140" s="6" t="s">
+      <c r="G146" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F140" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G140" s="6" t="s">
+    </row>
+    <row r="147" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B147" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
-    </row>
-    <row r="142" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-    </row>
-    <row r="143" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
-    </row>
-    <row r="144" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B146" s="7"/>
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="9"/>
-    </row>
-    <row r="147" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="9"/>
+      <c r="C147" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
     </row>
     <row r="148" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F148" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G148" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="A148" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G148" s="5"/>
     </row>
     <row r="149" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
-        <v>134</v>
+        <v>316</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F149" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>315</v>
+      </c>
       <c r="G149" s="5"/>
     </row>
     <row r="150" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
-        <v>135</v>
+        <v>317</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>136</v>
+        <v>315</v>
       </c>
       <c r="G150" s="5"/>
     </row>
     <row r="151" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
-        <v>137</v>
+        <v>318</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>137</v>
+        <v>315</v>
       </c>
       <c r="G151" s="5"/>
     </row>
     <row r="152" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F152" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G152" s="5"/>
+      <c r="A152" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
+      <c r="A153" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="154" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D154" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B154" s="71"/>
+      <c r="C154" s="72"/>
+      <c r="D154" s="72"/>
+      <c r="E154" s="72"/>
+      <c r="F154" s="72"/>
+      <c r="G154" s="73"/>
     </row>
     <row r="155" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E155" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
+      <c r="A155" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B155" s="72"/>
+      <c r="C155" s="72"/>
+      <c r="D155" s="72"/>
+      <c r="E155" s="72"/>
+      <c r="F155" s="72"/>
+      <c r="G155" s="73"/>
     </row>
     <row r="156" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>1</v>
+      <c r="A156" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G156" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="4" t="s">
-        <v>143</v>
-      </c>
+      <c r="A157" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
     </row>
     <row r="158" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B158" s="7"/>
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8"/>
-      <c r="G158" s="9"/>
+        <v>118</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
     </row>
     <row r="159" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B159" s="8"/>
-      <c r="C159" s="8"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="9"/>
+      <c r="A159" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
     </row>
     <row r="160" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E160" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F160" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G160" s="6" t="s">
-        <v>26</v>
+      <c r="A160" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D161" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E161" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F161" s="5"/>
-      <c r="G161" s="5"/>
+      <c r="A161" s="4" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="162" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E162" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F162" s="5"/>
-      <c r="G162" s="5"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B162" s="71"/>
+      <c r="C162" s="72"/>
+      <c r="D162" s="72"/>
+      <c r="E162" s="72"/>
+      <c r="F162" s="72"/>
+      <c r="G162" s="73"/>
+    </row>
+    <row r="163" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B163" s="72"/>
+      <c r="C163" s="72"/>
+      <c r="D163" s="72"/>
+      <c r="E163" s="72"/>
+      <c r="F163" s="72"/>
+      <c r="G163" s="73"/>
+    </row>
+    <row r="164" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G164" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+    </row>
+    <row r="166" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+    </row>
+    <row r="167" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="168" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B169" s="71"/>
+      <c r="C169" s="72"/>
+      <c r="D169" s="72"/>
+      <c r="E169" s="72"/>
+      <c r="F169" s="72"/>
+      <c r="G169" s="73"/>
+    </row>
+    <row r="170" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B170" s="72"/>
+      <c r="C170" s="72"/>
+      <c r="D170" s="72"/>
+      <c r="E170" s="72"/>
+      <c r="F170" s="72"/>
+      <c r="G170" s="73"/>
+    </row>
+    <row r="171" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G171" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+    </row>
+    <row r="173" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+    </row>
+    <row r="174" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B176" s="71"/>
+      <c r="C176" s="72"/>
+      <c r="D176" s="72"/>
+      <c r="E176" s="72"/>
+      <c r="F176" s="72"/>
+      <c r="G176" s="73"/>
+    </row>
+    <row r="177" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B177" s="72"/>
+      <c r="C177" s="72"/>
+      <c r="D177" s="72"/>
+      <c r="E177" s="72"/>
+      <c r="F177" s="72"/>
+      <c r="G177" s="73"/>
+    </row>
+    <row r="178" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G178" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+    </row>
+    <row r="180" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+    </row>
+    <row r="181" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B138:G138"/>
-    <mergeCell ref="A139:G139"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="A147:G147"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="A159:G159"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="A116:G116"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="A123:G123"/>
-    <mergeCell ref="B130:G130"/>
-    <mergeCell ref="A131:G131"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="A90:G90"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="A99:G99"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="A108:G108"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="A80:G80"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="A23:G23"/>
+  <mergeCells count="34">
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="A170:G170"/>
+    <mergeCell ref="B176:G176"/>
+    <mergeCell ref="A177:G177"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="A145:G145"/>
+    <mergeCell ref="B154:G154"/>
+    <mergeCell ref="A155:G155"/>
+    <mergeCell ref="B162:G162"/>
+    <mergeCell ref="A163:G163"/>
+    <mergeCell ref="A137:G137"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="A95:G95"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="A103:G103"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="A112:G112"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="A120:G120"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="A128:G128"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="A32:G32"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="A77:G77"/>
+    <mergeCell ref="B84:G84"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A5" location="agence pizzeracademy" display="agence pizzeracademy"/>
-    <hyperlink ref="A6" location="commande" display="commande"/>
-    <hyperlink ref="A7" location="Client" display="Client"/>
-    <hyperlink ref="A8" location="adresse" display="adresse"/>
-    <hyperlink ref="A9" location="info bancaire" display="info bancaire"/>
-    <hyperlink ref="A10" location="pizza" display="pizza"/>
-    <hyperlink ref="A11" location="ingredients" display="ingredients"/>
-    <hyperlink ref="A12" location="aide mÃ©moire" display="aide mÃ©moire"/>
-    <hyperlink ref="A13" location="gestion stock" display="gestion stock"/>
-    <hyperlink ref="A14" location="aide mÃ©moire_has_ingredients" display="aide mÃ©moire_has_ingredients"/>
-    <hyperlink ref="A15" location="type paiements" display="type paiements"/>
-    <hyperlink ref="A16" location="pizza_has_commande" display="pizza_has_commande"/>
-    <hyperlink ref="A17" location="ingredients_has_pizza" display="ingredients_has_pizza"/>
-    <hyperlink ref="A18" location="commande d'ingredient" display="commande d'ingredient"/>
-    <hyperlink ref="A19" location="commande d'ingredient_has_ingredients" display="commande d'ingredient_has_ingredients"/>
-    <hyperlink ref="A163" location="home" display="home"/>
+    <hyperlink ref="A5" location="agence pizzeracademy" display="agence pizzeracademy" xr:uid="{77C23911-4E79-401E-95F5-3122DF5D3E9A}"/>
+    <hyperlink ref="A6" location="commande" display="commande" xr:uid="{FD0AAB0F-24F6-4605-B03F-146E174C593D}"/>
+    <hyperlink ref="A7" location="Client" display="Client" xr:uid="{77046821-33ED-49BA-9F90-A5ECD3AD321E}"/>
+    <hyperlink ref="A8" location="adresse" display="adresse" xr:uid="{27215CBE-51E4-4F9E-8EF3-420BD325A039}"/>
+    <hyperlink ref="A9" location="info bancaire" display="info bancaire" xr:uid="{B028D9F8-D19B-478D-8E61-F804577C8D9F}"/>
+    <hyperlink ref="A10" location="pizza" display="pizza" xr:uid="{51FB65CB-FABB-4629-8BD7-8C6083955D8D}"/>
+    <hyperlink ref="A11" location="ingredients" display="ingredients" xr:uid="{B56F5F3C-2BE0-4E60-83C1-1819E3D44C28}"/>
+    <hyperlink ref="A12" location="aide mÃ©moire" display="aide mÃ©moire" xr:uid="{C4FBDB72-DC3D-48E2-A072-5D6BED83B483}"/>
+    <hyperlink ref="A13" location="gestion stock" display="gestion stock" xr:uid="{9DF12A91-3A68-466B-B6A6-06CC1AD2025E}"/>
+    <hyperlink ref="A14" location="type paiements" display="type paiements" xr:uid="{C4D4D4AC-C27D-4DAD-A07C-2534F8AB6629}"/>
+    <hyperlink ref="A15" location="commande d'ingredient" display="commande d'ingredient" xr:uid="{55F5EB0A-6F25-40DE-ADCD-9A2C5AD4A57F}"/>
+    <hyperlink ref="A16" location="Status commande" display="Status commande" xr:uid="{DC8C1134-37B9-4A10-A0F4-FC48621C274F}"/>
+    <hyperlink ref="A17" location="modalitÃ© de commande" display="modalitÃ© de commande" xr:uid="{1D11ED17-8573-4187-87CC-39D8033EAF2A}"/>
+    <hyperlink ref="A18" location="commande_has_pizza" display="commande_has_pizza" xr:uid="{31838215-2F59-4BA4-9273-A44DB2E599FD}"/>
+    <hyperlink ref="A19" location="commande d'ingredient_has_ingredients" display="commande d'ingredient_has_ingredients" xr:uid="{22DE3A8B-91E7-4B2A-AC31-6EFE41DB3305}"/>
+    <hyperlink ref="A20" location="Stock" display="Stock" xr:uid="{9DE6F39C-608C-446C-B7A5-702795521D87}"/>
+    <hyperlink ref="A21" location="ingredients_has_pizza" display="ingredients_has_pizza" xr:uid="{36C22D68-574A-48B8-B90D-516345AF88C9}"/>
+    <hyperlink ref="A182" location="home" display="home" xr:uid="{A74714D1-D3F6-447F-96C3-BB1B79379E43}"/>
   </hyperlinks>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527ED2E9-D7AD-4EDA-9CB8-2A116AD959C1}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="5" max="5" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="46"/>
+      <c r="B6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="46"/>
+      <c r="B7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="46"/>
+      <c r="B8" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="46"/>
+      <c r="B9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="46"/>
+      <c r="B10" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="46"/>
+      <c r="B11" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="46"/>
+      <c r="B12" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="47"/>
+      <c r="B13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:A13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD6C7E0-46B0-4360-AE51-E1196AEE8158}">
+  <sheetPr>
+    <tabColor rgb="FFFF00FF"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="5" max="5" width="50.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="48"/>
+      <c r="B8" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="48"/>
+      <c r="B9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="48"/>
+      <c r="B10" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88652F10-DFDB-4D64-AD4D-0FE234E502A2}">
+  <sheetPr>
+    <tabColor rgb="FF99FF66"/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="50"/>
+      <c r="B7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="51"/>
+      <c r="B8" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCCD5FB-90AC-4A9A-823F-0C430E060BE6}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" customWidth="1"/>
+    <col min="5" max="5" width="56.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="52"/>
+      <c r="B5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="52"/>
+      <c r="B6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="52"/>
+      <c r="B7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="52"/>
+      <c r="B8" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="52"/>
+      <c r="B9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="52"/>
+      <c r="B10" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="52"/>
+      <c r="B11" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="52"/>
+      <c r="B12" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE52733-6AE8-474F-851F-D6C7913F723A}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="43"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="44"/>
+      <c r="B6" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="44"/>
+      <c r="B7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="44"/>
+      <c r="B8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="44"/>
+      <c r="B9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="44"/>
+      <c r="B10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="44"/>
+      <c r="B11" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF5EFFC-08E7-4139-9CB3-1B5599F1EFA4}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="51.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="53"/>
+      <c r="B5" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="53"/>
+      <c r="B6" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="53"/>
+      <c r="B7" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="53"/>
+      <c r="B8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0916935B-A95F-4957-A17E-F3E8191F7B86}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="5" max="5" width="57" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="55"/>
+      <c r="B5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="55"/>
+      <c r="B6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
+      <c r="B7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="55"/>
+      <c r="B8" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="55"/>
+      <c r="B9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="55"/>
+      <c r="B10" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="55"/>
+      <c r="B11" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="55"/>
+      <c r="B12" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="55"/>
+      <c r="B13" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="55"/>
+      <c r="B14" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="56"/>
+      <c r="B15" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78517E4-0969-4860-9A93-2AE359F3412F}">
+  <sheetPr>
+    <tabColor rgb="FF00FFFF"/>
+  </sheetPr>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D1" s="29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="57"/>
+      <c r="D4" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="57"/>
+      <c r="D7" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="57"/>
+      <c r="D8" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="57"/>
+      <c r="D16" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="57"/>
+      <c r="D17" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="57"/>
+      <c r="D18" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="57"/>
+      <c r="D19" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="C15:C19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>